--- a/municipal/ENG/Social Statistic/Pensioners/Imereti/Tkibuli.xlsx
+++ b/municipal/ENG/Social Statistic/Pensioners/Imereti/Tkibuli.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\პენსიის მიმღებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Pensioners\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">Persons Receiving Pension in Tkibuli                                                                                                                                                                                                                                                                                                                           </t>
-  </si>
   <si>
     <t>(end of  year)</t>
   </si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Source: Ministry of internally displaced persons from the occupied territories, Labour, Health and Social Affairs of Georgia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persons Receiving Pension in Tkibuli municipality                                                                                                                                                                                                                                                                                                                           </t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -570,7 +570,7 @@
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>6040</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -625,7 +625,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
